--- a/src/bin/SSS_Sofia_Pantokarens_Angle_HydrostaticCurves.xlsx
+++ b/src/bin/SSS_Sofia_Pantokarens_Angle_HydrostaticCurves.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BD25F-E0FC-445C-B233-6AF3D2372785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C066F08-EB32-4857-B745-387C97AEAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angle" sheetId="1" r:id="rId1"/>
@@ -1301,9 +1301,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="16">
-        <v>10.87</v>
+        <v>15.87</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="16">
-        <v>11.87</v>
+        <v>15.87</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="16">
-        <v>12.87</v>
+        <v>15.87</v>
       </c>
       <c r="U4" s="20" t="s">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="16">
-        <v>13.87</v>
+        <v>15.87</v>
       </c>
       <c r="U5" s="20" t="s">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="16">
-        <v>14.87</v>
+        <v>15.87</v>
       </c>
       <c r="U6" s="20" t="s">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="16">
-        <v>16.87</v>
+        <v>15.87</v>
       </c>
       <c r="U38" s="20" t="s">
         <v>1</v>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="16">
-        <v>17.87</v>
+        <v>15.87</v>
       </c>
       <c r="U39" s="20" t="s">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="T40" s="16">
-        <v>18.87</v>
+        <v>15.87</v>
       </c>
       <c r="U40" s="20" t="s">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="T41" s="16">
-        <v>19.87</v>
+        <v>15.87</v>
       </c>
       <c r="U41" s="20" t="s">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="16">
-        <v>20.87</v>
+        <v>15.87</v>
       </c>
       <c r="U42" s="20" t="s">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="16">
-        <v>21.87</v>
+        <v>15.87</v>
       </c>
       <c r="U43" s="20" t="s">
         <v>1</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="16">
-        <v>22.87</v>
+        <v>15.87</v>
       </c>
       <c r="U44" s="20" t="s">
         <v>1</v>
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="T45" s="16">
-        <v>23.87</v>
+        <v>15.87</v>
       </c>
       <c r="U45" s="20" t="s">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="16">
-        <v>24.87</v>
+        <v>15.87</v>
       </c>
       <c r="U46" s="20" t="s">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="T47" s="16">
-        <v>25.87</v>
+        <v>15.87</v>
       </c>
       <c r="U47" s="20" t="s">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="T48" s="16">
-        <v>26.87</v>
+        <v>15.87</v>
       </c>
       <c r="U48" s="20" t="s">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="16">
-        <v>27.87</v>
+        <v>15.87</v>
       </c>
       <c r="U49" s="20" t="s">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="16">
-        <v>28.87</v>
+        <v>15.87</v>
       </c>
       <c r="U50" s="20" t="s">
         <v>1</v>
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="16">
-        <v>29.87</v>
+        <v>15.87</v>
       </c>
       <c r="U51" s="20" t="s">
         <v>1</v>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="T52" s="16">
-        <v>30.87</v>
+        <v>15.87</v>
       </c>
       <c r="U52" s="20" t="s">
         <v>1</v>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="16">
-        <v>31.87</v>
+        <v>15.87</v>
       </c>
       <c r="U53" s="20" t="s">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="T54" s="16">
-        <v>32.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U54" s="20" t="s">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="T55" s="16">
-        <v>33.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U55" s="20" t="s">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="16">
-        <v>34.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U56" s="20" t="s">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="T57" s="16">
-        <v>35.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U57" s="20" t="s">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="T58" s="16">
-        <v>36.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U58" s="20" t="s">
         <v>1</v>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="T59" s="16">
-        <v>37.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U59" s="20" t="s">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="16">
-        <v>38.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U60" s="20" t="s">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="16">
-        <v>39.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U61" s="20" t="s">
         <v>1</v>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="16">
-        <v>40.869999999999997</v>
+        <v>15.87</v>
       </c>
       <c r="U62" s="20" t="s">
         <v>1</v>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="16">
-        <v>41.87</v>
+        <v>15.87</v>
       </c>
       <c r="U63" s="20" t="s">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="16">
-        <v>42.87</v>
+        <v>15.87</v>
       </c>
       <c r="U64" s="20" t="s">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="T65" s="16">
-        <v>43.87</v>
+        <v>15.87</v>
       </c>
       <c r="U65" s="20" t="s">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="16">
-        <v>44.87</v>
+        <v>15.87</v>
       </c>
       <c r="U66" s="20" t="s">
         <v>1</v>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="16">
-        <v>45.87</v>
+        <v>15.87</v>
       </c>
       <c r="U67" s="20" t="s">
         <v>1</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="T68" s="16">
-        <v>46.87</v>
+        <v>15.87</v>
       </c>
       <c r="U68" s="20" t="s">
         <v>1</v>
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="T69" s="16">
-        <v>47.87</v>
+        <v>15.87</v>
       </c>
       <c r="U69" s="20" t="s">
         <v>1</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="T70" s="16">
-        <v>48.87</v>
+        <v>15.87</v>
       </c>
       <c r="U70" s="20" t="s">
         <v>1</v>
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="T71" s="16">
-        <v>49.87</v>
+        <v>15.87</v>
       </c>
       <c r="U71" s="20" t="s">
         <v>1</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="T72" s="16">
-        <v>50.87</v>
+        <v>15.87</v>
       </c>
       <c r="U72" s="20" t="s">
         <v>1</v>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="T73" s="16">
-        <v>51.87</v>
+        <v>15.87</v>
       </c>
       <c r="U73" s="20" t="s">
         <v>1</v>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="T74" s="16">
-        <v>52.87</v>
+        <v>15.87</v>
       </c>
       <c r="U74" s="20" t="s">
         <v>1</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="T75" s="16">
-        <v>53.87</v>
+        <v>15.87</v>
       </c>
       <c r="U75" s="20" t="s">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="T76" s="16">
-        <v>54.87</v>
+        <v>15.87</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="T77" s="16">
-        <v>55.87</v>
+        <v>15.87</v>
       </c>
       <c r="U77" s="20" t="s">
         <v>1</v>
@@ -7168,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="T78" s="16">
-        <v>56.87</v>
+        <v>15.87</v>
       </c>
       <c r="U78" s="20" t="s">
         <v>1</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="T79" s="16">
-        <v>57.87</v>
+        <v>15.87</v>
       </c>
       <c r="U79" s="20" t="s">
         <v>1</v>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="T80" s="16">
-        <v>58.87</v>
+        <v>15.87</v>
       </c>
       <c r="U80" s="20" t="s">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="T81" s="16">
-        <v>59.87</v>
+        <v>15.87</v>
       </c>
       <c r="U81" s="20" t="s">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="T82" s="16">
-        <v>60.87</v>
+        <v>15.87</v>
       </c>
       <c r="U82" s="20" t="s">
         <v>1</v>
@@ -7544,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="T83" s="16">
-        <v>61.87</v>
+        <v>15.87</v>
       </c>
       <c r="U83" s="20" t="s">
         <v>1</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="T84" s="16">
-        <v>62.87</v>
+        <v>15.87</v>
       </c>
       <c r="U84" s="20" t="s">
         <v>1</v>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="T85" s="16">
-        <v>63.87</v>
+        <v>15.87</v>
       </c>
       <c r="U85" s="20" t="s">
         <v>1</v>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="T86" s="16">
-        <v>64.87</v>
+        <v>15.87</v>
       </c>
       <c r="U86" s="20" t="s">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="T87" s="16">
-        <v>65.87</v>
+        <v>15.87</v>
       </c>
       <c r="U87" s="20" t="s">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="T88" s="16">
-        <v>66.87</v>
+        <v>15.87</v>
       </c>
       <c r="U88" s="20" t="s">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="T89" s="16">
-        <v>67.87</v>
+        <v>15.87</v>
       </c>
       <c r="U89" s="20" t="s">
         <v>1</v>
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="T90" s="16">
-        <v>68.87</v>
+        <v>15.87</v>
       </c>
       <c r="U90" s="20" t="s">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="T91" s="16">
-        <v>69.87</v>
+        <v>15.87</v>
       </c>
       <c r="U91" s="20" t="s">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="T92" s="16">
-        <v>70.87</v>
+        <v>15.87</v>
       </c>
       <c r="U92" s="20" t="s">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="T93" s="16">
-        <v>71.87</v>
+        <v>15.87</v>
       </c>
       <c r="U93" s="20" t="s">
         <v>1</v>
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="T94" s="16">
-        <v>72.87</v>
+        <v>15.87</v>
       </c>
       <c r="U94" s="20" t="s">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="T95" s="16">
-        <v>73.87</v>
+        <v>15.87</v>
       </c>
       <c r="U95" s="20" t="s">
         <v>1</v>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="T96" s="16">
-        <v>74.87</v>
+        <v>15.87</v>
       </c>
       <c r="U96" s="20" t="s">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="T97" s="16">
-        <v>75.87</v>
+        <v>15.87</v>
       </c>
       <c r="U97" s="20" t="s">
         <v>1</v>
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="T98" s="16">
-        <v>76.87</v>
+        <v>15.87</v>
       </c>
       <c r="U98" s="20" t="s">
         <v>1</v>
@@ -8744,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="T99" s="16">
-        <v>77.87</v>
+        <v>15.87</v>
       </c>
       <c r="U99" s="20" t="s">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="T100" s="16">
-        <v>78.87</v>
+        <v>15.87</v>
       </c>
       <c r="U100" s="20" t="s">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="T101" s="16">
-        <v>79.87</v>
+        <v>15.87</v>
       </c>
       <c r="U101" s="20" t="s">
         <v>1</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="T102" s="16">
-        <v>80.87</v>
+        <v>15.87</v>
       </c>
       <c r="U102" s="20" t="s">
         <v>1</v>
@@ -9044,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="T103" s="16">
-        <v>81.87</v>
+        <v>15.87</v>
       </c>
       <c r="U103" s="20" t="s">
         <v>1</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="T104" s="16">
-        <v>82.87</v>
+        <v>15.87</v>
       </c>
       <c r="U104" s="20" t="s">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="T105" s="16">
-        <v>83.87</v>
+        <v>15.87</v>
       </c>
       <c r="U105" s="20" t="s">
         <v>1</v>
@@ -9269,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="T106" s="16">
-        <v>84.87</v>
+        <v>15.87</v>
       </c>
       <c r="U106" s="20" t="s">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="T107" s="16">
-        <v>85.87</v>
+        <v>15.87</v>
       </c>
       <c r="U107" s="20" t="s">
         <v>1</v>
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="T108" s="16">
-        <v>86.87</v>
+        <v>15.87</v>
       </c>
       <c r="U108" s="20" t="s">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="T109" s="16">
-        <v>87.87</v>
+        <v>15.87</v>
       </c>
       <c r="U109" s="20" t="s">
         <v>1</v>
@@ -9568,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="T110" s="16">
-        <v>88.87</v>
+        <v>15.87</v>
       </c>
       <c r="U110" s="20" t="s">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="T111" s="16">
-        <v>89.87</v>
+        <v>15.87</v>
       </c>
       <c r="U111" s="20" t="s">
         <v>1</v>
@@ -9720,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="T112" s="16">
-        <v>90.87</v>
+        <v>15.87</v>
       </c>
       <c r="U112" s="20" t="s">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="T113" s="16">
-        <v>91.87</v>
+        <v>15.87</v>
       </c>
       <c r="U113" s="20" t="s">
         <v>1</v>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="T114" s="16">
-        <v>92.87</v>
+        <v>15.87</v>
       </c>
       <c r="U114" s="20" t="s">
         <v>1</v>
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="16">
-        <v>93.87</v>
+        <v>15.87</v>
       </c>
       <c r="U115" s="20" t="s">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="T116" s="16">
-        <v>94.87</v>
+        <v>15.87</v>
       </c>
       <c r="U116" s="20" t="s">
         <v>1</v>
@@ -10100,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="T117" s="16">
-        <v>95.87</v>
+        <v>15.87</v>
       </c>
       <c r="U117" s="20" t="s">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="T118" s="16">
-        <v>96.87</v>
+        <v>15.87</v>
       </c>
       <c r="U118" s="20" t="s">
         <v>1</v>
@@ -10250,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="T119" s="16">
-        <v>97.87</v>
+        <v>15.87</v>
       </c>
       <c r="U119" s="20" t="s">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="T120" s="16">
-        <v>98.87</v>
+        <v>15.87</v>
       </c>
       <c r="U120" s="20" t="s">
         <v>1</v>
@@ -10400,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="T121" s="16">
-        <v>99.87</v>
+        <v>15.87</v>
       </c>
       <c r="U121" s="20" t="s">
         <v>1</v>
@@ -10475,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="T122" s="16">
-        <v>100.87</v>
+        <v>15.87</v>
       </c>
       <c r="U122" s="20" t="s">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="T123" s="16">
-        <v>101.87</v>
+        <v>15.87</v>
       </c>
       <c r="U123" s="20" t="s">
         <v>1</v>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="T124" s="16">
-        <v>102.87</v>
+        <v>15.87</v>
       </c>
       <c r="U124" s="20" t="s">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="T125" s="16">
-        <v>103.87</v>
+        <v>15.87</v>
       </c>
       <c r="U125" s="20" t="s">
         <v>1</v>
@@ -10775,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="T126" s="16">
-        <v>104.87</v>
+        <v>15.87</v>
       </c>
       <c r="U126" s="20" t="s">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="T127" s="16">
-        <v>105.87</v>
+        <v>15.87</v>
       </c>
       <c r="U127" s="20" t="s">
         <v>1</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="T128" s="16">
-        <v>106.87</v>
+        <v>15.87</v>
       </c>
       <c r="U128" s="20" t="s">
         <v>1</v>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="T129" s="16">
-        <v>107.87</v>
+        <v>15.87</v>
       </c>
       <c r="U129" s="20" t="s">
         <v>1</v>
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="T130" s="16">
-        <v>108.87</v>
+        <v>15.87</v>
       </c>
       <c r="U130" s="20" t="s">
         <v>1</v>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="T131" s="16">
-        <v>109.87</v>
+        <v>15.87</v>
       </c>
       <c r="U131" s="20" t="s">
         <v>1</v>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="T132" s="16">
-        <v>110.87</v>
+        <v>15.87</v>
       </c>
       <c r="U132" s="20" t="s">
         <v>1</v>
@@ -11300,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="T133" s="16">
-        <v>111.87</v>
+        <v>15.87</v>
       </c>
       <c r="U133" s="20" t="s">
         <v>1</v>
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="T134" s="16">
-        <v>112.87</v>
+        <v>15.87</v>
       </c>
       <c r="U134" s="20" t="s">
         <v>1</v>
@@ -11450,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="T135" s="16">
-        <v>113.87</v>
+        <v>15.87</v>
       </c>
       <c r="U135" s="20" t="s">
         <v>1</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="T136" s="16">
-        <v>114.87</v>
+        <v>15.87</v>
       </c>
       <c r="U136" s="20" t="s">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="T137" s="16">
-        <v>115.87</v>
+        <v>15.87</v>
       </c>
       <c r="U137" s="20" t="s">
         <v>1</v>
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="T138" s="16">
-        <v>116.87</v>
+        <v>15.87</v>
       </c>
       <c r="U138" s="20" t="s">
         <v>1</v>
@@ -11750,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="T139" s="16">
-        <v>117.87</v>
+        <v>15.87</v>
       </c>
       <c r="U139" s="20" t="s">
         <v>1</v>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="T140" s="16">
-        <v>118.87</v>
+        <v>15.87</v>
       </c>
       <c r="U140" s="20" t="s">
         <v>1</v>
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="T141" s="16">
-        <v>119.87</v>
+        <v>15.87</v>
       </c>
       <c r="U141" s="20" t="s">
         <v>1</v>
@@ -11975,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="T142" s="16">
-        <v>120.87</v>
+        <v>15.87</v>
       </c>
       <c r="U142" s="20" t="s">
         <v>1</v>
@@ -12050,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="T143" s="16">
-        <v>121.87</v>
+        <v>15.87</v>
       </c>
       <c r="U143" s="20" t="s">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="T144" s="16">
-        <v>122.87</v>
+        <v>15.87</v>
       </c>
       <c r="U144" s="20" t="s">
         <v>1</v>
@@ -12200,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="T145" s="16">
-        <v>123.87</v>
+        <v>15.87</v>
       </c>
       <c r="U145" s="20" t="s">
         <v>1</v>
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="T146" s="16">
-        <v>124.87</v>
+        <v>15.87</v>
       </c>
       <c r="U146" s="20" t="s">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="T147" s="16">
-        <v>125.87</v>
+        <v>15.87</v>
       </c>
       <c r="U147" s="20" t="s">
         <v>1</v>
@@ -12424,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="T148" s="16">
-        <v>126.87</v>
+        <v>15.87</v>
       </c>
       <c r="U148" s="20" t="s">
         <v>1</v>
@@ -12499,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="T149" s="16">
-        <v>127.87</v>
+        <v>15.87</v>
       </c>
       <c r="U149" s="20" t="s">
         <v>1</v>
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="T150" s="16">
-        <v>128.87</v>
+        <v>15.87</v>
       </c>
       <c r="U150" s="20" t="s">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="T151" s="16">
-        <v>129.87</v>
+        <v>15.87</v>
       </c>
       <c r="U151" s="20" t="s">
         <v>1</v>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="T152" s="16">
-        <v>130.87</v>
+        <v>15.87</v>
       </c>
       <c r="U152" s="20" t="s">
         <v>1</v>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="T153" s="16">
-        <v>131.87</v>
+        <v>15.87</v>
       </c>
       <c r="U153" s="20" t="s">
         <v>1</v>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="T154" s="16">
-        <v>132.87</v>
+        <v>15.87</v>
       </c>
       <c r="U154" s="20" t="s">
         <v>1</v>
@@ -12950,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="T155" s="16">
-        <v>133.87</v>
+        <v>15.87</v>
       </c>
       <c r="U155" s="20" t="s">
         <v>1</v>
@@ -13025,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="T156" s="16">
-        <v>134.87</v>
+        <v>15.87</v>
       </c>
       <c r="U156" s="20" t="s">
         <v>1</v>
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="T157" s="16">
-        <v>135.87</v>
+        <v>15.87</v>
       </c>
       <c r="U157" s="20" t="s">
         <v>1</v>
@@ -13175,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="T158" s="16">
-        <v>136.87</v>
+        <v>15.87</v>
       </c>
       <c r="U158" s="20" t="s">
         <v>1</v>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="T159" s="16">
-        <v>137.87</v>
+        <v>15.87</v>
       </c>
       <c r="U159" s="20" t="s">
         <v>1</v>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="T160" s="16">
-        <v>138.87</v>
+        <v>15.87</v>
       </c>
       <c r="U160" s="20" t="s">
         <v>1</v>
@@ -13400,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="T161" s="16">
-        <v>139.87</v>
+        <v>15.87</v>
       </c>
       <c r="U161" s="20" t="s">
         <v>1</v>
@@ -13475,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="T162" s="16">
-        <v>140.87</v>
+        <v>15.87</v>
       </c>
       <c r="U162" s="20" t="s">
         <v>1</v>
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="T163" s="16">
-        <v>141.87</v>
+        <v>15.87</v>
       </c>
       <c r="U163" s="20" t="s">
         <v>1</v>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="T164" s="16">
-        <v>142.87</v>
+        <v>15.87</v>
       </c>
       <c r="U164" s="20" t="s">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="T165" s="16">
-        <v>143.87</v>
+        <v>15.87</v>
       </c>
       <c r="U165" s="20" t="s">
         <v>1</v>
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="T166" s="16">
-        <v>144.87</v>
+        <v>15.87</v>
       </c>
       <c r="U166" s="20" t="s">
         <v>1</v>
@@ -13850,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="T167" s="16">
-        <v>145.87</v>
+        <v>15.87</v>
       </c>
       <c r="U167" s="20" t="s">
         <v>1</v>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
       <c r="T168" s="16">
-        <v>146.87</v>
+        <v>15.87</v>
       </c>
       <c r="U168" s="20" t="s">
         <v>1</v>
@@ -14000,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="T169" s="16">
-        <v>147.87</v>
+        <v>15.87</v>
       </c>
       <c r="U169" s="20" t="s">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="T170" s="16">
-        <v>148.87</v>
+        <v>15.87</v>
       </c>
       <c r="U170" s="20" t="s">
         <v>1</v>
@@ -14150,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="T171" s="16">
-        <v>149.87</v>
+        <v>15.87</v>
       </c>
       <c r="U171" s="20" t="s">
         <v>1</v>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="T172" s="16">
-        <v>150.87</v>
+        <v>15.87</v>
       </c>
       <c r="U172" s="20" t="s">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="T173" s="16">
-        <v>151.87</v>
+        <v>15.87</v>
       </c>
       <c r="U173" s="20" t="s">
         <v>1</v>
@@ -14375,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="T174" s="16">
-        <v>152.87</v>
+        <v>15.87</v>
       </c>
       <c r="U174" s="20" t="s">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="T175" s="16">
-        <v>153.87</v>
+        <v>15.87</v>
       </c>
       <c r="U175" s="20" t="s">
         <v>1</v>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="T176" s="16">
-        <v>154.87</v>
+        <v>15.87</v>
       </c>
       <c r="U176" s="20" t="s">
         <v>1</v>
@@ -14600,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="T177" s="16">
-        <v>155.87</v>
+        <v>15.87</v>
       </c>
       <c r="U177" s="20" t="s">
         <v>1</v>
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
       <c r="T178" s="16">
-        <v>156.87</v>
+        <v>15.87</v>
       </c>
       <c r="U178" s="20" t="s">
         <v>1</v>
@@ -14750,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="T179" s="16">
-        <v>157.87</v>
+        <v>15.87</v>
       </c>
       <c r="U179" s="20" t="s">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="T180" s="16">
-        <v>158.87</v>
+        <v>15.87</v>
       </c>
       <c r="U180" s="20" t="s">
         <v>1</v>
@@ -14900,7 +14900,7 @@
         <v>1</v>
       </c>
       <c r="T181" s="16">
-        <v>159.87</v>
+        <v>15.87</v>
       </c>
       <c r="U181" s="20" t="s">
         <v>1</v>
@@ -14974,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="T182" s="16">
-        <v>160.87</v>
+        <v>15.87</v>
       </c>
       <c r="U182" s="20" t="s">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="T183" s="16">
-        <v>161.87</v>
+        <v>15.87</v>
       </c>
       <c r="U183" s="20" t="s">
         <v>1</v>
@@ -15124,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="T184" s="16">
-        <v>162.87</v>
+        <v>15.87</v>
       </c>
       <c r="U184" s="20" t="s">
         <v>1</v>
@@ -15199,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="T185" s="16">
-        <v>163.87</v>
+        <v>15.87</v>
       </c>
       <c r="U185" s="20" t="s">
         <v>1</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="T186" s="16">
-        <v>164.87</v>
+        <v>15.87</v>
       </c>
       <c r="U186" s="20" t="s">
         <v>1</v>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="T187" s="16">
-        <v>165.87</v>
+        <v>15.87</v>
       </c>
       <c r="U187" s="20" t="s">
         <v>1</v>
@@ -15425,7 +15425,7 @@
         <v>1</v>
       </c>
       <c r="T188" s="16">
-        <v>166.87</v>
+        <v>15.87</v>
       </c>
       <c r="U188" s="20" t="s">
         <v>1</v>
@@ -15500,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="T189" s="16">
-        <v>167.87</v>
+        <v>15.87</v>
       </c>
       <c r="U189" s="20" t="s">
         <v>1</v>
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="T190" s="16">
-        <v>168.87</v>
+        <v>15.87</v>
       </c>
       <c r="U190" s="20" t="s">
         <v>1</v>
@@ -15650,7 +15650,7 @@
         <v>1</v>
       </c>
       <c r="T191" s="16">
-        <v>169.87</v>
+        <v>15.87</v>
       </c>
       <c r="U191" s="20" t="s">
         <v>1</v>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="T192" s="16">
-        <v>170.87</v>
+        <v>15.87</v>
       </c>
       <c r="U192" s="20" t="s">
         <v>1</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="T193" s="16">
-        <v>171.87</v>
+        <v>15.87</v>
       </c>
       <c r="U193" s="20" t="s">
         <v>1</v>
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="T194" s="16">
-        <v>172.87</v>
+        <v>15.87</v>
       </c>
       <c r="U194" s="20" t="s">
         <v>1</v>
@@ -15950,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="T195" s="16">
-        <v>173.87</v>
+        <v>15.87</v>
       </c>
       <c r="U195" s="20" t="s">
         <v>1</v>
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="T196" s="16">
-        <v>174.87</v>
+        <v>15.87</v>
       </c>
       <c r="U196" s="20" t="s">
         <v>1</v>
@@ -16100,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="T197" s="16">
-        <v>175.87</v>
+        <v>15.87</v>
       </c>
       <c r="U197" s="20" t="s">
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="T198" s="16">
-        <v>176.87</v>
+        <v>15.87</v>
       </c>
       <c r="U198" s="20" t="s">
         <v>1</v>
@@ -16250,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="T199" s="16">
-        <v>177.87</v>
+        <v>15.87</v>
       </c>
       <c r="U199" s="20" t="s">
         <v>1</v>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="T200" s="16">
-        <v>178.87</v>
+        <v>15.87</v>
       </c>
       <c r="U200" s="20" t="s">
         <v>1</v>
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="T201" s="16">
-        <v>179.87</v>
+        <v>15.87</v>
       </c>
       <c r="U201" s="20" t="s">
         <v>1</v>
@@ -16475,7 +16475,7 @@
         <v>1</v>
       </c>
       <c r="T202" s="16">
-        <v>180.87</v>
+        <v>15.87</v>
       </c>
       <c r="U202" s="20" t="s">
         <v>1</v>
@@ -16550,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="T203" s="16">
-        <v>181.87</v>
+        <v>15.87</v>
       </c>
       <c r="U203" s="20" t="s">
         <v>1</v>
@@ -16625,7 +16625,7 @@
         <v>1</v>
       </c>
       <c r="T204" s="16">
-        <v>182.87</v>
+        <v>15.87</v>
       </c>
       <c r="U204" s="20" t="s">
         <v>1</v>
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
       <c r="T205" s="16">
-        <v>183.87</v>
+        <v>15.87</v>
       </c>
       <c r="U205" s="20" t="s">
         <v>1</v>
@@ -16775,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="T206" s="16">
-        <v>184.87</v>
+        <v>15.87</v>
       </c>
       <c r="U206" s="20" t="s">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="T207" s="16">
-        <v>185.87</v>
+        <v>15.87</v>
       </c>
       <c r="U207" s="20" t="s">
         <v>1</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="T208" s="16">
-        <v>186.87</v>
+        <v>15.87</v>
       </c>
       <c r="U208" s="20" t="s">
         <v>1</v>
@@ -17000,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="T209" s="16">
-        <v>187.87</v>
+        <v>15.87</v>
       </c>
       <c r="U209" s="20" t="s">
         <v>1</v>
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="T210" s="16">
-        <v>188.87</v>
+        <v>15.87</v>
       </c>
       <c r="U210" s="20" t="s">
         <v>1</v>
@@ -17150,7 +17150,7 @@
         <v>1</v>
       </c>
       <c r="T211" s="16">
-        <v>189.87</v>
+        <v>15.87</v>
       </c>
       <c r="U211" s="20" t="s">
         <v>1</v>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="T212" s="16">
-        <v>190.87</v>
+        <v>15.87</v>
       </c>
       <c r="U212" s="20" t="s">
         <v>1</v>
@@ -17300,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="T213" s="16">
-        <v>191.87</v>
+        <v>15.87</v>
       </c>
       <c r="U213" s="20" t="s">
         <v>1</v>
@@ -17375,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="T214" s="16">
-        <v>192.87</v>
+        <v>15.87</v>
       </c>
       <c r="U214" s="20" t="s">
         <v>1</v>
@@ -17450,7 +17450,7 @@
         <v>1</v>
       </c>
       <c r="T215" s="16">
-        <v>193.87</v>
+        <v>15.87</v>
       </c>
       <c r="U215" s="20" t="s">
         <v>1</v>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="T216" s="16">
-        <v>194.87</v>
+        <v>15.87</v>
       </c>
       <c r="U216" s="20" t="s">
         <v>1</v>
@@ -17600,7 +17600,7 @@
         <v>1</v>
       </c>
       <c r="T217" s="16">
-        <v>195.87</v>
+        <v>15.87</v>
       </c>
       <c r="U217" s="20" t="s">
         <v>1</v>
@@ -26580,7 +26580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA40484-3319-4556-998F-B01A9379511C}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
